--- a/Esercitazione2/Tabelle_Strategia2.xlsx
+++ b/Esercitazione2/Tabelle_Strategia2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\simon\OneDrive\Desktop\Universita\Informatica\Magistrale\Anno_2\Metodi_Numerici\MNI_Esercizi\Esercitazione2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7716ED71-8DFF-4749-8FF0-4589DFE46937}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16459CF5-21F9-4D6D-A8B3-114D2A32FAC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="19410" windowHeight="20985" xr2:uid="{BFBD3147-2A7D-4227-A28A-85E78CD98EEF}"/>
+    <workbookView xWindow="18195" yWindow="5955" windowWidth="18420" windowHeight="14595" xr2:uid="{BFBD3147-2A7D-4227-A28A-85E78CD98EEF}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -69,8 +69,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0000"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
   <fonts count="11" x14ac:knownFonts="1">
     <font>
@@ -178,7 +179,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
@@ -197,6 +198,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -824,7 +826,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>4.086062093045201</c:v>
+                  <c:v>1.4138907237897516</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>2.1123989952486157</c:v>
@@ -909,7 +911,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>7.0948713747337377</c:v>
+                  <c:v>2.4550221202687204</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>2.3313293253173013</c:v>
@@ -994,7 +996,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>6.0281219546150631</c:v>
+                  <c:v>2.085897257413337</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>2.9176942691134058</c:v>
@@ -1485,7 +1487,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>2.0430310465226005</c:v>
+                  <c:v>0.70694536189487578</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>1.0561994976243079</c:v>
@@ -1570,7 +1572,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>1.7737178436834344</c:v>
+                  <c:v>0.61375553006718009</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.58283233132932533</c:v>
@@ -1655,7 +1657,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.75351524432688288</c:v>
+                  <c:v>0.26073715717666712</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.36471178363917572</c:v>
@@ -3554,8 +3556,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3725E956-6166-4304-922D-C2C0C8EF654E}">
   <dimension ref="A1:E32"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="P25" sqref="P25"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A3" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3589,8 +3591,8 @@
       <c r="B3" s="4">
         <v>1000</v>
       </c>
-      <c r="C3" s="9">
-        <v>4.33</v>
+      <c r="C3" s="12">
+        <v>1.4983</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
@@ -3678,11 +3680,11 @@
       </c>
       <c r="D11" s="3">
         <f>C3/C11</f>
-        <v>4.086062093045201</v>
+        <v>1.4138907237897516</v>
       </c>
       <c r="E11" s="3">
         <f>D11/2</f>
-        <v>2.0430310465226005</v>
+        <v>0.70694536189487578</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -3804,11 +3806,11 @@
       </c>
       <c r="D19" s="3">
         <f>C3/C19</f>
-        <v>7.0948713747337377</v>
+        <v>2.4550221202687204</v>
       </c>
       <c r="E19" s="3">
         <f>D19/4</f>
-        <v>1.7737178436834344</v>
+        <v>0.61375553006718009</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -3936,11 +3938,11 @@
       </c>
       <c r="D28" s="3">
         <f>C3/C28</f>
-        <v>6.0281219546150631</v>
+        <v>2.085897257413337</v>
       </c>
       <c r="E28" s="3">
         <f>D28/8</f>
-        <v>0.75351524432688288</v>
+        <v>0.26073715717666712</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
